--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -6,10 +6,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\euvicPraktyki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dawid\Desktop\euvicInternship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EE7AB9-BE02-4AFA-BAA8-088BAFF40042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF60E352-9717-4ABB-BF55-A06B5EEC0FDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{ECB5B274-4C85-A246-9F39-27C65DC5E6A5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Czas [h]</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Umożliwienie dodawania spotkań</t>
+  </si>
+  <si>
+    <t>Umożliwienie pobrania wszystkich nie zarezerwowanych spotkań</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776B16D4-4A4E-B64F-A019-C52527AB2E2A}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1101,13 +1104,13 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1115,63 +1118,74 @@
         <v>44049</v>
       </c>
       <c r="B48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B49" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B50" s="1">
         <v>8</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B51" s="1">
         <v>8</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B52" s="1">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>44053</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B53" s="1">
         <v>3</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="1">
-        <f>SUM(B2:B52)</f>
-        <v>163.5</v>
+      <c r="B54" s="1">
+        <f>SUM(B2:B53)</f>
+        <v>164.5</v>
       </c>
     </row>
   </sheetData>
@@ -1181,12 +1195,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1322,15 +1333,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1354,10 +1369,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89A3B923-F919-4A22-94D3-DBAAFD20A330}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EE0AA63-4C71-4853-AA83-FB6609B135DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>